--- a/mitf_excel.xlsx
+++ b/mitf_excel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" activeTab="1"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mitf_vcf" sheetId="1" r:id="rId1"/>
     <sheet name="vcf colored" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="variant_effect" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="457">
   <si>
     <t>chr20</t>
   </si>
@@ -1327,6 +1328,66 @@
   </si>
   <si>
     <t>chloe</t>
+  </si>
+  <si>
+    <t>20_21840721_T/G</t>
+  </si>
+  <si>
+    <t>20:21840721</t>
+  </si>
+  <si>
+    <t>NM_001003337.1</t>
+  </si>
+  <si>
+    <t>Transcript</t>
+  </si>
+  <si>
+    <t>splice_donor_variant</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IMPACT=HIGH;STRAND=1</t>
+  </si>
+  <si>
+    <t>XM_005632016.2</t>
+  </si>
+  <si>
+    <t>XM_005632017.2</t>
+  </si>
+  <si>
+    <t>XM_005632018.2</t>
+  </si>
+  <si>
+    <t>XM_005632019.2</t>
+  </si>
+  <si>
+    <t>20_21844032_G/T</t>
+  </si>
+  <si>
+    <t>20:21844032</t>
+  </si>
+  <si>
+    <t>20_21855626_G/T</t>
+  </si>
+  <si>
+    <t>20:21855626</t>
+  </si>
+  <si>
+    <t>20_21861352_C/A</t>
+  </si>
+  <si>
+    <t>20:21861352</t>
+  </si>
+  <si>
+    <t>stop_gained</t>
+  </si>
+  <si>
+    <t>S/*</t>
+  </si>
+  <si>
+    <t>tCa/tAa</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1902,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1851,6 +1912,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4258,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B75" sqref="B75:G78"/>
     </sheetView>
   </sheetViews>
@@ -8628,4 +8690,899 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16" s="7">
+        <v>833</v>
+      </c>
+      <c r="I16" s="7">
+        <v>701</v>
+      </c>
+      <c r="J16" s="7">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1048</v>
+      </c>
+      <c r="I17" s="7">
+        <v>974</v>
+      </c>
+      <c r="J17" s="7">
+        <v>325</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1039</v>
+      </c>
+      <c r="I18" s="7">
+        <v>971</v>
+      </c>
+      <c r="J18" s="7">
+        <v>324</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1030</v>
+      </c>
+      <c r="I19" s="7">
+        <v>956</v>
+      </c>
+      <c r="J19" s="7">
+        <v>319</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="7">
+        <v>415126</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H20" s="7">
+        <v>823</v>
+      </c>
+      <c r="I20" s="7">
+        <v>683</v>
+      </c>
+      <c r="J20" s="7">
+        <v>228</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>